--- a/data/trans_camb/P5B_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P5B_R-Provincia-trans_camb.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con calidad medioambiental mala o muy mala en la zona de residencia</t>
+          <t>Hogares con calidad medioambiental percibida como mala o muy mala en la zona de residencia</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 6,45</t>
+          <t>-0,2; 6,55</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,82; -0,36</t>
+          <t>-5,04; -0,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,04; 6,8</t>
+          <t>1,1; 6,8</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,22; -0,39</t>
+          <t>-3,28; -0,38</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,18; 5,71</t>
+          <t>1,17; 5,68</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,32; -0,68</t>
+          <t>-3,37; -0,67</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-22,05; 602,47</t>
+          <t>-15,62; 653,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>11,44; 1487,4</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>1,96; 1502,31</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>28,92; 677,72</t>
+          <t>29,45; 548,98</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -33,75</t>
+          <t>-100,0; 1,45</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 4,18</t>
+          <t>-1,53; 4,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 1,02</t>
+          <t>-3,21; 1,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,16; -1,12</t>
+          <t>-5,06; -0,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 1,17</t>
+          <t>-4,31; 0,96</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 2,16</t>
+          <t>-3,5; 1,88</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,07; -2,89</t>
+          <t>-6,99; -2,87</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 1,78</t>
+          <t>-1,9; 1,84</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 1,0</t>
+          <t>-2,72; 0,92</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-5,31; -2,44</t>
+          <t>-5,38; -2,37</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-29,5; 163,63</t>
+          <t>-34,16; 177,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-69,99; 45,89</t>
+          <t>-66,14; 73,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-94,37; -25,46</t>
+          <t>-94,91; -22,32</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-60,44; 31,74</t>
+          <t>-59,27; 23,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-48,74; 54,82</t>
+          <t>-49,59; 49,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-95,19; -67,7</t>
+          <t>-95,09; -68,22</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-35,74; 52,8</t>
+          <t>-34,31; 51,32</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-47,89; 28,9</t>
+          <t>-48,5; 24,47</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-92,78; -65,09</t>
+          <t>-92,36; -60,96</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,25; -2,12</t>
+          <t>-6,19; -2,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,67; -0,9</t>
+          <t>-5,76; -1,15</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 3,85</t>
+          <t>-2,79; 3,3</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,33; -3,77</t>
+          <t>-9,18; -3,8</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,74; -3,46</t>
+          <t>-8,79; -3,22</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,42; -0,13</t>
+          <t>-6,47; -0,01</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,81; -3,41</t>
+          <t>-6,8; -3,44</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,53; -2,83</t>
+          <t>-6,31; -2,8</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 0,67</t>
+          <t>-3,69; 0,87</t>
         </is>
       </c>
     </row>
@@ -1228,42 +1228,42 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 33,74</t>
+          <t>-100,0; -10,32</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-54,01; 160,45</t>
+          <t>-57,85; 147,97</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -74,24</t>
+          <t>-100,0; -72,9</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -53,64</t>
+          <t>-100,0; -62,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-75,96; 8,47</t>
+          <t>-76,64; 7,43</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -84,09</t>
+          <t>-100,0; -82,03</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-97,61; -66,13</t>
+          <t>-97,29; -62,88</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-59,65; 18,65</t>
+          <t>-58,09; 24,05</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 0,74</t>
+          <t>-3,18; 0,91</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 0,41</t>
+          <t>-3,64; 0,31</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 2,91</t>
+          <t>-2,12; 3,21</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 1,98</t>
+          <t>-2,33; 1,52</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 3,01</t>
+          <t>-2,23; 3,09</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 1,43</t>
+          <t>-2,41; 1,31</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 0,73</t>
+          <t>-2,09; 0,8</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 1,09</t>
+          <t>-2,22; 1,1</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 1,59</t>
+          <t>-1,82; 1,62</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-71,56; 51,12</t>
+          <t>-73,32; 66,69</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-88,19; 39,12</t>
+          <t>-89,88; 33,28</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-57,13; 193,62</t>
+          <t>-57,94; 200,9</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-53,95; 133,7</t>
+          <t>-57,3; 91,03</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-56,62; 202,27</t>
+          <t>-60,43; 200,53</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-61,8; 94,7</t>
+          <t>-60,62; 81,74</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-58,29; 41,15</t>
+          <t>-55,6; 47,05</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-62,14; 66,61</t>
+          <t>-60,3; 61,09</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-47,83; 89,59</t>
+          <t>-50,15; 81,34</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-9,42; -1,21</t>
+          <t>-9,95; -1,15</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-11,94; -4,55</t>
+          <t>-11,69; -4,25</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-11,27; -3,92</t>
+          <t>-11,38; -4,02</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-13,05; -2,83</t>
+          <t>-11,78; -2,45</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-13,84; -4,3</t>
+          <t>-12,73; -4,28</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-14,19; -6,0</t>
+          <t>-14,3; -5,84</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-9,21; -2,75</t>
+          <t>-9,09; -2,85</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-11,08; -5,23</t>
+          <t>-10,85; -5,18</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-11,63; -6,09</t>
+          <t>-11,39; -5,97</t>
         </is>
       </c>
     </row>
@@ -1655,7 +1655,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-89,63; -7,6</t>
+          <t>-90,63; -10,81</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -1665,37 +1665,37 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -63,35</t>
+          <t>-100,0; -72,86</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-91,6; -30,7</t>
+          <t>-89,95; -27,59</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-97,02; -54,16</t>
+          <t>-96,49; -51,65</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -91,33</t>
+          <t>-100,0; -91,61</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-84,01; -35,42</t>
+          <t>-85,54; -40,22</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-97,85; -74,67</t>
+          <t>-97,78; -73,73</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -87,73</t>
+          <t>-100,0; -89,42</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 1,12</t>
+          <t>-1,78; 1,17</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 0,31</t>
+          <t>-2,28; 0,31</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 1,56</t>
+          <t>-1,82; 1,43</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 0,05</t>
+          <t>-3,58; 0,03</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-3,73; -0,03</t>
+          <t>-3,8; -0,03</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 0,69</t>
+          <t>-3,05; 0,69</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 0,18</t>
+          <t>-2,26; 0,24</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-2,46; -0,15</t>
+          <t>-2,56; -0,21</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 0,61</t>
+          <t>-1,97; 0,63</t>
         </is>
       </c>
     </row>
@@ -1896,22 +1896,22 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-93,25; 142,07</t>
+          <t>-90,38; 154,84</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 56,43</t>
+          <t>-100,0; 94,74</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 26,47</t>
+          <t>-100,0; 86,59</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-80,14; 125,67</t>
+          <t>-79,95; 113,62</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,71; -0,26</t>
+          <t>-2,81; -0,28</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 0,61</t>
+          <t>-2,41; 0,46</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-2,81; -0,24</t>
+          <t>-2,85; -0,28</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-7,92; -3,62</t>
+          <t>-7,91; -3,63</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-7,02; -2,76</t>
+          <t>-7,01; -2,68</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-6,87; -2,73</t>
+          <t>-7,1; -2,77</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-4,96; -2,51</t>
+          <t>-4,8; -2,4</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-4,26; -1,57</t>
+          <t>-4,15; -1,63</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-4,47; -1,79</t>
+          <t>-4,29; -1,89</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-90,01; -5,15</t>
+          <t>-91,7; -7,56</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-80,49; 56,17</t>
+          <t>-83,63; 51,41</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-91,68; -0,27</t>
+          <t>-91,62; -2,35</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-96,18; -60,78</t>
+          <t>-97,67; -67,09</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-87,44; -52,19</t>
+          <t>-86,95; -49,15</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-85,88; -49,75</t>
+          <t>-87,09; -50,51</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-92,05; -65,6</t>
+          <t>-91,64; -64,09</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-80,69; -41,41</t>
+          <t>-80,49; -40,91</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-82,74; -47,79</t>
+          <t>-83,25; -51,78</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-3,19; -0,25</t>
+          <t>-3,15; -0,18</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-3,92; -1,3</t>
+          <t>-3,87; -1,28</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-3,56; -0,86</t>
+          <t>-3,61; -0,97</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-4,46; -1,64</t>
+          <t>-4,51; -1,71</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-4,39; -1,52</t>
+          <t>-4,46; -1,48</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-4,56; -1,65</t>
+          <t>-4,5; -1,69</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-3,4; -1,26</t>
+          <t>-3,47; -1,31</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-3,62; -1,71</t>
+          <t>-3,72; -1,67</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-3,55; -1,6</t>
+          <t>-3,68; -1,64</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-87,46; -1,63</t>
+          <t>-86,77; 1,06</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -65,04</t>
+          <t>-100,0; -51,77</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-95,19; -39,19</t>
+          <t>-95,09; -43,81</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-94,16; -57,36</t>
+          <t>-95,0; -58,0</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-91,92; -49,15</t>
+          <t>-91,54; -46,59</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-92,98; -58,0</t>
+          <t>-93,16; -57,01</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-86,59; -46,78</t>
+          <t>-86,95; -48,46</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-92,77; -65,4</t>
+          <t>-93,37; -63,53</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-90,28; -63,26</t>
+          <t>-91,18; -63,08</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-2,04; -0,57</t>
+          <t>-1,98; -0,54</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-2,32; -0,91</t>
+          <t>-2,39; -0,87</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-2,5; -1,13</t>
+          <t>-2,6; -1,11</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-3,92; -2,24</t>
+          <t>-3,95; -2,18</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-3,54; -1,77</t>
+          <t>-3,55; -1,78</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-4,23; -2,6</t>
+          <t>-4,34; -2,65</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>-2,76; -1,64</t>
+          <t>-2,81; -1,62</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-2,71; -1,53</t>
+          <t>-2,63; -1,54</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-3,15; -2,07</t>
+          <t>-3,15; -2,09</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-60,55; -22,58</t>
+          <t>-59,83; -20,58</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-68,54; -33,87</t>
+          <t>-67,99; -32,97</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-74,25; -42,88</t>
+          <t>-74,15; -41,95</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-74,84; -51,95</t>
+          <t>-75,16; -51,79</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-66,53; -40,91</t>
+          <t>-66,89; -42,56</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-80,31; -63,01</t>
+          <t>-79,86; -62,73</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>-65,84; -46,23</t>
+          <t>-66,34; -45,71</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-64,08; -43,4</t>
+          <t>-62,82; -42,8</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-75,28; -60,35</t>
+          <t>-74,8; -59,21</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P5B_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P5B_R-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 6,55</t>
+          <t>-0,41; 6,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,04; -0,53</t>
+          <t>-5,28; -0,43</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,1; 6,8</t>
+          <t>1,14; 6,78</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,28; -0,38</t>
+          <t>-3,23; -0,39</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,17; 5,68</t>
+          <t>1,09; 5,56</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,37; -0,67</t>
+          <t>-3,26; -0,64</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-15,62; 653,64</t>
+          <t>-30,28; 731,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,44; 1487,4</t>
+          <t>2,5; 1567,64</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>29,45; 548,98</t>
+          <t>25,97; 571,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 1,45</t>
+          <t>-100,0; -42,3</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 4,13</t>
+          <t>-1,16; 4,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 1,43</t>
+          <t>-3,46; 1,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,06; -0,92</t>
+          <t>-4,81; -0,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 0,96</t>
+          <t>-4,23; 1,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 1,88</t>
+          <t>-3,38; 1,95</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,99; -2,87</t>
+          <t>-7,25; -2,99</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 1,84</t>
+          <t>-2,0; 1,99</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 0,92</t>
+          <t>-2,51; 1,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-5,38; -2,37</t>
+          <t>-5,48; -2,43</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-34,16; 177,68</t>
+          <t>-26,59; 185,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-66,14; 73,24</t>
+          <t>-67,07; 69,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-94,91; -22,32</t>
+          <t>-94,46; -21,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-59,27; 23,99</t>
+          <t>-60,9; 32,24</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-49,59; 49,1</t>
+          <t>-49,22; 47,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-95,09; -68,22</t>
+          <t>-95,5; -69,94</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-34,31; 51,32</t>
+          <t>-36,46; 54,39</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-48,5; 24,47</t>
+          <t>-46,53; 28,62</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-92,36; -60,96</t>
+          <t>-92,5; -63,51</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,19; -2,06</t>
+          <t>-6,26; -1,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,76; -1,15</t>
+          <t>-5,71; -1,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 3,3</t>
+          <t>-2,71; 3,51</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,18; -3,8</t>
+          <t>-9,35; -3,72</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,79; -3,22</t>
+          <t>-8,77; -3,17</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,47; -0,01</t>
+          <t>-6,45; -0,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,8; -3,44</t>
+          <t>-6,82; -3,38</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,31; -2,8</t>
+          <t>-6,43; -2,81</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 0,87</t>
+          <t>-3,73; 0,79</t>
         </is>
       </c>
     </row>
@@ -1228,42 +1228,42 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -10,32</t>
+          <t>-100,0; -7,95</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-57,85; 147,97</t>
+          <t>-56,39; 168,65</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -72,9</t>
+          <t>-100,0; -73,36</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -62,0</t>
+          <t>-100,0; -52,7</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-76,64; 7,43</t>
+          <t>-75,89; 5,67</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -82,03</t>
+          <t>-100,0; -82,63</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-97,29; -62,88</t>
+          <t>-97,55; -64,72</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-58,09; 24,05</t>
+          <t>-58,7; 23,64</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 0,91</t>
+          <t>-3,31; 0,8</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 0,31</t>
+          <t>-3,59; 0,5</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 3,21</t>
+          <t>-2,18; 3,4</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 1,52</t>
+          <t>-2,32; 1,71</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 3,09</t>
+          <t>-1,99; 3,05</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 1,31</t>
+          <t>-2,62; 1,52</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 0,8</t>
+          <t>-2,23; 0,78</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 1,1</t>
+          <t>-2,11; 1,19</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 1,62</t>
+          <t>-1,83; 1,52</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-73,32; 66,69</t>
+          <t>-76,7; 59,13</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-89,88; 33,28</t>
+          <t>-88,07; 54,18</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-57,94; 200,9</t>
+          <t>-59,82; 229,03</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-57,3; 91,03</t>
+          <t>-57,93; 122,77</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-60,43; 200,53</t>
+          <t>-54,7; 183,04</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-60,62; 81,74</t>
+          <t>-60,25; 101,64</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-55,6; 47,05</t>
+          <t>-55,95; 46,03</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-60,3; 61,09</t>
+          <t>-60,78; 68,12</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-50,15; 81,34</t>
+          <t>-49,38; 79,71</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-9,95; -1,15</t>
+          <t>-9,9; -1,2</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-11,69; -4,25</t>
+          <t>-12,7; -4,7</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-11,38; -4,02</t>
+          <t>-11,57; -4,03</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-11,78; -2,45</t>
+          <t>-11,33; -1,89</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-12,73; -4,28</t>
+          <t>-12,9; -4,39</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-14,3; -5,84</t>
+          <t>-14,27; -6,01</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-9,09; -2,85</t>
+          <t>-9,36; -2,67</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-10,85; -5,18</t>
+          <t>-11,12; -5,35</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-11,39; -5,97</t>
+          <t>-11,44; -6,05</t>
         </is>
       </c>
     </row>
@@ -1655,7 +1655,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-90,63; -10,81</t>
+          <t>-89,4; 1,17</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -1665,37 +1665,37 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -72,86</t>
+          <t>-100,0; -73,21</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-89,95; -27,59</t>
+          <t>-89,95; -21,89</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-96,49; -51,65</t>
+          <t>-96,42; -56,45</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -91,61</t>
+          <t>-100,0; -92,85</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-85,54; -40,22</t>
+          <t>-86,22; -38,19</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-97,78; -73,73</t>
+          <t>-98,14; -76,31</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -89,42</t>
+          <t>-100,0; -88,14</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 1,17</t>
+          <t>-1,87; 1,21</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 0,31</t>
+          <t>-2,53; 0,3</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 1,43</t>
+          <t>-1,89; 1,4</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 0,03</t>
+          <t>-3,67; 0,05</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-3,8; -0,03</t>
+          <t>-3,75; 0,0</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 0,69</t>
+          <t>-2,92; 0,9</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 0,24</t>
+          <t>-2,19; 0,23</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-2,56; -0,21</t>
+          <t>-2,47; -0,15</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 0,63</t>
+          <t>-1,87; 0,66</t>
         </is>
       </c>
     </row>
@@ -1891,27 +1891,27 @@
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-90,38; 154,84</t>
+          <t>-87,98; 219,66</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 94,74</t>
+          <t>-100,0; 74,92</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 86,59</t>
+          <t>-100,0; 30,17</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-79,95; 113,62</t>
+          <t>-80,27; 126,27</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,81; -0,28</t>
+          <t>-2,89; -0,28</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 0,46</t>
+          <t>-2,35; 0,48</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-2,85; -0,28</t>
+          <t>-2,84; -0,24</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-7,91; -3,63</t>
+          <t>-8,17; -3,65</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-7,01; -2,68</t>
+          <t>-7,16; -2,85</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-7,1; -2,77</t>
+          <t>-7,05; -2,71</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-4,8; -2,4</t>
+          <t>-4,94; -2,36</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-4,15; -1,63</t>
+          <t>-4,24; -1,57</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-4,29; -1,89</t>
+          <t>-4,35; -1,75</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-91,7; -7,56</t>
+          <t>-91,24; -7,73</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-83,63; 51,41</t>
+          <t>-82,57; 42,22</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-91,62; -2,35</t>
+          <t>-90,71; 8,13</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-97,67; -67,09</t>
+          <t>-97,13; -64,31</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-86,95; -49,15</t>
+          <t>-86,83; -49,92</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-87,09; -50,51</t>
+          <t>-86,87; -48,92</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-91,64; -64,09</t>
+          <t>-91,7; -63,22</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-80,49; -40,91</t>
+          <t>-80,16; -41,58</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-83,25; -51,78</t>
+          <t>-82,5; -46,6</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-3,15; -0,18</t>
+          <t>-3,08; -0,27</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-3,87; -1,28</t>
+          <t>-3,78; -1,36</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-3,61; -0,97</t>
+          <t>-3,47; -0,98</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-4,51; -1,71</t>
+          <t>-4,64; -1,77</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-4,46; -1,48</t>
+          <t>-4,61; -1,58</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-4,5; -1,69</t>
+          <t>-4,66; -1,68</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-3,47; -1,31</t>
+          <t>-3,42; -1,44</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-3,72; -1,67</t>
+          <t>-3,75; -1,83</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-3,68; -1,64</t>
+          <t>-3,57; -1,64</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-86,77; 1,06</t>
+          <t>-86,0; 8,36</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -51,77</t>
+          <t>-100,0; -62,23</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-95,09; -43,81</t>
+          <t>-94,68; -36,83</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-95,0; -58,0</t>
+          <t>-94,53; -57,08</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-91,54; -46,59</t>
+          <t>-92,63; -47,83</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-93,16; -57,01</t>
+          <t>-92,42; -58,61</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-86,95; -48,46</t>
+          <t>-85,79; -52,28</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-93,37; -63,53</t>
+          <t>-92,62; -66,82</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-91,18; -63,08</t>
+          <t>-90,94; -63,4</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-1,98; -0,54</t>
+          <t>-2,01; -0,52</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-2,39; -0,87</t>
+          <t>-2,32; -0,84</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-2,6; -1,11</t>
+          <t>-2,57; -1,1</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-3,95; -2,18</t>
+          <t>-3,9; -2,24</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-3,55; -1,78</t>
+          <t>-3,43; -1,73</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-4,34; -2,65</t>
+          <t>-4,18; -2,58</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>-2,81; -1,62</t>
+          <t>-2,78; -1,66</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-2,63; -1,54</t>
+          <t>-2,64; -1,5</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-3,15; -2,09</t>
+          <t>-3,11; -2,08</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-59,83; -20,58</t>
+          <t>-59,68; -20,12</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-67,99; -32,97</t>
+          <t>-67,73; -32,13</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-74,15; -41,95</t>
+          <t>-75,11; -42,36</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-75,16; -51,79</t>
+          <t>-74,86; -53,36</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-66,89; -42,56</t>
+          <t>-65,8; -39,4</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-79,86; -62,73</t>
+          <t>-79,61; -61,59</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>-66,34; -45,71</t>
+          <t>-66,43; -46,87</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-62,82; -42,8</t>
+          <t>-62,92; -42,42</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-74,8; -59,21</t>
+          <t>-74,4; -58,29</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P5B_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P5B_R-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con calidad medioambiental percibida como mala o muy mala en la zona de residencia</t>
+          <t>Población con calidad medioambiental percibida como mala o muy mala en la zona de residencia</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 6,44</t>
+          <t>-0,35; 6,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,28; -0,43</t>
+          <t>-4,82; -0,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,14; 6,78</t>
+          <t>1,04; 6,8</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,23; -0,39</t>
+          <t>-3,22; -0,39</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,09; 5,56</t>
+          <t>1,18; 5,71</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,26; -0,64</t>
+          <t>-3,32; -0,68</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-30,28; 731,37</t>
+          <t>-22,05; 602,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,5; 1567,64</t>
+          <t>1,96; 1502,31</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>25,97; 571,0</t>
+          <t>28,92; 677,72</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -42,3</t>
+          <t>-100,0; -33,75</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 4,3</t>
+          <t>-1,31; 4,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 1,36</t>
+          <t>-3,46; 1,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,81; -0,96</t>
+          <t>-5,16; -1,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 1,19</t>
+          <t>-4,17; 1,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 1,95</t>
+          <t>-3,25; 2,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,25; -2,99</t>
+          <t>-7,07; -2,89</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 1,99</t>
+          <t>-1,92; 1,78</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 1,0</t>
+          <t>-2,64; 1,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-5,48; -2,43</t>
+          <t>-5,31; -2,44</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-26,59; 185,38</t>
+          <t>-29,5; 163,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-67,07; 69,77</t>
+          <t>-69,99; 45,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-94,46; -21,27</t>
+          <t>-94,37; -25,46</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-60,9; 32,24</t>
+          <t>-60,44; 31,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-49,22; 47,46</t>
+          <t>-48,74; 54,82</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-95,5; -69,94</t>
+          <t>-95,19; -67,7</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-36,46; 54,39</t>
+          <t>-35,74; 52,8</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-46,53; 28,62</t>
+          <t>-47,89; 28,9</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-92,5; -63,51</t>
+          <t>-92,78; -65,09</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,26; -1,85</t>
+          <t>-6,25; -2,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,71; -1,0</t>
+          <t>-5,67; -0,9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 3,51</t>
+          <t>-2,59; 3,85</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,35; -3,72</t>
+          <t>-9,33; -3,77</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,77; -3,17</t>
+          <t>-8,74; -3,46</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,45; -0,0</t>
+          <t>-6,42; -0,13</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,82; -3,38</t>
+          <t>-6,81; -3,41</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,43; -2,81</t>
+          <t>-6,53; -2,83</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 0,79</t>
+          <t>-3,79; 0,67</t>
         </is>
       </c>
     </row>
@@ -1228,42 +1228,42 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -7,95</t>
+          <t>-100,0; 33,74</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-56,39; 168,65</t>
+          <t>-54,01; 160,45</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -73,36</t>
+          <t>-100,0; -74,24</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -52,7</t>
+          <t>-100,0; -53,64</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-75,89; 5,67</t>
+          <t>-75,96; 8,47</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -82,63</t>
+          <t>-100,0; -84,09</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-97,55; -64,72</t>
+          <t>-97,61; -66,13</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-58,7; 23,64</t>
+          <t>-59,65; 18,65</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 0,8</t>
+          <t>-3,06; 0,74</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 0,5</t>
+          <t>-3,68; 0,41</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 3,4</t>
+          <t>-2,15; 2,91</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 1,71</t>
+          <t>-2,19; 1,98</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 3,05</t>
+          <t>-2,25; 3,01</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 1,52</t>
+          <t>-2,43; 1,43</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 0,78</t>
+          <t>-2,04; 0,73</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 1,19</t>
+          <t>-2,23; 1,09</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 1,52</t>
+          <t>-1,71; 1,59</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-76,7; 59,13</t>
+          <t>-71,56; 51,12</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-88,07; 54,18</t>
+          <t>-88,19; 39,12</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-59,82; 229,03</t>
+          <t>-57,13; 193,62</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-57,93; 122,77</t>
+          <t>-53,95; 133,7</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-54,7; 183,04</t>
+          <t>-56,62; 202,27</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-60,25; 101,64</t>
+          <t>-61,8; 94,7</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-55,95; 46,03</t>
+          <t>-58,29; 41,15</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-60,78; 68,12</t>
+          <t>-62,14; 66,61</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-49,38; 79,71</t>
+          <t>-47,83; 89,59</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-9,9; -1,2</t>
+          <t>-9,42; -1,21</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-12,7; -4,7</t>
+          <t>-11,94; -4,55</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-11,57; -4,03</t>
+          <t>-11,27; -3,92</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-11,33; -1,89</t>
+          <t>-13,05; -2,83</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-12,9; -4,39</t>
+          <t>-13,84; -4,3</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-14,27; -6,01</t>
+          <t>-14,19; -6,0</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-9,36; -2,67</t>
+          <t>-9,21; -2,75</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-11,12; -5,35</t>
+          <t>-11,08; -5,23</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-11,44; -6,05</t>
+          <t>-11,63; -6,09</t>
         </is>
       </c>
     </row>
@@ -1655,7 +1655,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-89,4; 1,17</t>
+          <t>-89,63; -7,6</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -1665,37 +1665,37 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -73,21</t>
+          <t>-100,0; -63,35</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-89,95; -21,89</t>
+          <t>-91,6; -30,7</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-96,42; -56,45</t>
+          <t>-97,02; -54,16</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -92,85</t>
+          <t>-100,0; -91,33</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-86,22; -38,19</t>
+          <t>-84,01; -35,42</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-98,14; -76,31</t>
+          <t>-97,85; -74,67</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -88,14</t>
+          <t>-100,0; -87,73</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 1,21</t>
+          <t>-2,09; 1,12</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 0,3</t>
+          <t>-2,59; 0,31</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 1,4</t>
+          <t>-1,83; 1,56</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 0,05</t>
+          <t>-3,68; 0,05</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 0,0</t>
+          <t>-3,73; -0,03</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 0,9</t>
+          <t>-3,48; 0,69</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 0,23</t>
+          <t>-2,25; 0,18</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-2,47; -0,15</t>
+          <t>-2,46; -0,15</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 0,66</t>
+          <t>-1,84; 0,61</t>
         </is>
       </c>
     </row>
@@ -1891,27 +1891,27 @@
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-87,98; 219,66</t>
+          <t>-93,25; 142,07</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 74,92</t>
+          <t>-100,0; 56,43</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 30,17</t>
+          <t>-100,0; 26,47</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-80,27; 126,27</t>
+          <t>-80,14; 125,67</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,89; -0,28</t>
+          <t>-2,71; -0,26</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 0,48</t>
+          <t>-2,21; 0,61</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-2,84; -0,24</t>
+          <t>-2,81; -0,24</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-8,17; -3,65</t>
+          <t>-7,92; -3,62</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-7,16; -2,85</t>
+          <t>-7,02; -2,76</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-7,05; -2,71</t>
+          <t>-6,87; -2,73</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-4,94; -2,36</t>
+          <t>-4,96; -2,51</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-4,24; -1,57</t>
+          <t>-4,26; -1,57</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-4,35; -1,75</t>
+          <t>-4,47; -1,79</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-91,24; -7,73</t>
+          <t>-90,01; -5,15</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-82,57; 42,22</t>
+          <t>-80,49; 56,17</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-90,71; 8,13</t>
+          <t>-91,68; -0,27</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-97,13; -64,31</t>
+          <t>-96,18; -60,78</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-86,83; -49,92</t>
+          <t>-87,44; -52,19</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-86,87; -48,92</t>
+          <t>-85,88; -49,75</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-91,7; -63,22</t>
+          <t>-92,05; -65,6</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-80,16; -41,58</t>
+          <t>-80,69; -41,41</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-82,5; -46,6</t>
+          <t>-82,74; -47,79</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-3,08; -0,27</t>
+          <t>-3,19; -0,25</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-3,78; -1,36</t>
+          <t>-3,92; -1,3</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-3,47; -0,98</t>
+          <t>-3,56; -0,86</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-4,64; -1,77</t>
+          <t>-4,46; -1,64</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-4,61; -1,58</t>
+          <t>-4,39; -1,52</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-4,66; -1,68</t>
+          <t>-4,56; -1,65</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-3,42; -1,44</t>
+          <t>-3,4; -1,26</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-3,75; -1,83</t>
+          <t>-3,62; -1,71</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-3,57; -1,64</t>
+          <t>-3,55; -1,6</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-86,0; 8,36</t>
+          <t>-87,46; -1,63</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -62,23</t>
+          <t>-100,0; -65,04</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-94,68; -36,83</t>
+          <t>-95,19; -39,19</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-94,53; -57,08</t>
+          <t>-94,16; -57,36</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-92,63; -47,83</t>
+          <t>-91,92; -49,15</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-92,42; -58,61</t>
+          <t>-92,98; -58,0</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-85,79; -52,28</t>
+          <t>-86,59; -46,78</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-92,62; -66,82</t>
+          <t>-92,77; -65,4</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-90,94; -63,4</t>
+          <t>-90,28; -63,26</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-2,01; -0,52</t>
+          <t>-2,04; -0,57</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-2,32; -0,84</t>
+          <t>-2,32; -0,91</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-2,57; -1,1</t>
+          <t>-2,5; -1,13</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-3,9; -2,24</t>
+          <t>-3,92; -2,24</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-3,43; -1,73</t>
+          <t>-3,54; -1,77</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-4,18; -2,58</t>
+          <t>-4,23; -2,6</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>-2,78; -1,66</t>
+          <t>-2,76; -1,64</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-2,64; -1,5</t>
+          <t>-2,71; -1,53</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-3,11; -2,08</t>
+          <t>-3,15; -2,07</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-59,68; -20,12</t>
+          <t>-60,55; -22,58</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-67,73; -32,13</t>
+          <t>-68,54; -33,87</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-75,11; -42,36</t>
+          <t>-74,25; -42,88</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-74,86; -53,36</t>
+          <t>-74,84; -51,95</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-65,8; -39,4</t>
+          <t>-66,53; -40,91</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-79,61; -61,59</t>
+          <t>-80,31; -63,01</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>-66,43; -46,87</t>
+          <t>-65,84; -46,23</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-62,92; -42,42</t>
+          <t>-64,08; -43,4</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-74,4; -58,29</t>
+          <t>-75,28; -60,35</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P5B_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P5B_R-Provincia-trans_camb.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,09</t>
+          <t>-2,13</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,12</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-1,66</t>
+          <t>-1,68</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,7; 2,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,82; -0,36</t>
+          <t>-4,87; -0,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,29; 4,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -715,7 +715,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,89; 3,16</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,32; -0,68</t>
+          <t>-3,34; -0,71</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,32%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-88,66%</t>
+          <t>-90,47%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>175,63%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -768,7 +768,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>57,11%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-92,72%</t>
+          <t>-93,53%</t>
         </is>
       </c>
     </row>
@@ -791,37 +791,37 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-74,74; 283,82</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-22,05; 602,47</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-22,05; 602,47</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>-44,08; 946,75</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1,96; 1502,31</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>1,96; 1502,31</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,18; 417,68</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -33,75</t>
+          <t>-100,0; -40,44</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,81</t>
+          <t>-2,83</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,16; -1,12</t>
+          <t>-5,17; -1,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,07; -2,89</t>
+          <t>-7,06; -2,88</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-5,31; -2,44</t>
+          <t>-5,33; -2,44</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-77,13%</t>
+          <t>-77,73%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-86,49%</t>
+          <t>-86,38%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-82,86%</t>
+          <t>-83,0%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-94,37; -25,46</t>
+          <t>-94,58; -27,13</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-95,19; -67,7</t>
+          <t>-95,19; -67,75</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-92,78; -65,09</t>
+          <t>-92,92; -65,18</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-1,58</t>
+          <t>-1,54</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 3,85</t>
+          <t>-2,52; 4,03</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,42; -0,13</t>
+          <t>-6,44; -0,16</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 0,67</t>
+          <t>-3,77; 0,7</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>6,48%</t>
+          <t>8,16%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-50,84%</t>
+          <t>-50,93%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-31,03%</t>
+          <t>-30,34%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-54,01; 160,45</t>
+          <t>-54,55; 163,46</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-75,96; 8,47</t>
+          <t>-76,24; 8,25</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-59,65; 18,65</t>
+          <t>-59,53; 19,96</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,96</t>
+          <t>-1,37</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1295,7 +1295,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>-0,7</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>-0,74</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,56</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,15</t>
+          <t>-0,39</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 0,74</t>
+          <t>-3,28; 0,75</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 2,91</t>
+          <t>-2,14; 3,02</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 1,98</t>
+          <t>-2,84; 1,57</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 1,43</t>
+          <t>-2,86; 1,09</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 0,73</t>
+          <t>-2,58; 0,46</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 1,59</t>
+          <t>-2,01; 1,28</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-34,85%</t>
+          <t>-49,39%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1396,12 +1396,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>4,54%</t>
+          <t>4,74%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-5,89%</t>
+          <t>-25,32%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-12,72%</t>
+          <t>-26,8%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-20,36%</t>
+          <t>-37,16%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-5,3%</t>
+          <t>-14,27%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-71,56; 51,12</t>
+          <t>-84,71; 62,38</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-57,13; 193,62</t>
+          <t>-57,37; 198,81</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-53,95; 133,7</t>
+          <t>-73,04; 102,26</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1464,12 +1464,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-61,8; 94,7</t>
+          <t>-71,81; 59,44</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-58,29; 41,15</t>
+          <t>-70,61; 29,34</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-47,83; 89,59</t>
+          <t>-54,94; 78,67</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-7,13</t>
+          <t>-7,12</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-11,27; -3,92</t>
+          <t>-11,24; -3,9</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-14,19; -6,0</t>
+          <t>-14,19; -6,02</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-11,63; -6,09</t>
+          <t>-11,66; -6,11</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-95,36%</t>
+          <t>-95,16%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-98,65%</t>
+          <t>-98,75%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-97,4%</t>
+          <t>-97,44%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -63,35</t>
+          <t>-100,0; -61,97</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -91,33</t>
+          <t>-100,0; -92,54</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -87,73</t>
+          <t>-100,0; -88,41</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 1,56</t>
+          <t>-1,82; 1,6</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 0,61</t>
+          <t>-1,84; 0,64</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-24,4%</t>
+          <t>-23,96%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-48,97%</t>
+          <t>-49,06%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-93,25; 142,07</t>
+          <t>-93,26; 140,79</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-80,14; 125,67</t>
+          <t>-79,72; 129,75</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-1,43</t>
+          <t>-1,45</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-4,68</t>
+          <t>-4,9</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-3,03</t>
+          <t>-3,15</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-2,81; -0,24</t>
+          <t>-2,81; -0,27</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-6,87; -2,73</t>
+          <t>-7,21; -2,93</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-4,47; -1,79</t>
+          <t>-4,6; -1,93</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-67,85%</t>
+          <t>-68,47%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-72,29%</t>
+          <t>-75,76%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-69,91%</t>
+          <t>-72,64%</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-91,68; -0,27</t>
+          <t>-91,69; -2,04</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-85,88; -49,75</t>
+          <t>-90,25; -55,55</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-82,74; -47,79</t>
+          <t>-85,27; -52,2</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>-2,09</t>
+          <t>-2,19</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>-2,98</t>
+          <t>-2,97</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>-2,55</t>
+          <t>-2,62</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-3,56; -0,86</t>
+          <t>-3,69; -0,98</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-4,56; -1,65</t>
+          <t>-4,56; -1,64</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-3,55; -1,6</t>
+          <t>-3,63; -1,71</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>-80,54%</t>
+          <t>-84,56%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>-81,42%</t>
+          <t>-81,15%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>-81,13%</t>
+          <t>-83,24%</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-95,19; -39,19</t>
+          <t>-97,07; -51,8</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-92,98; -58,0</t>
+          <t>-92,85; -56,85</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-90,28; -63,26</t>
+          <t>-92,07; -67,75</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>-1,81</t>
+          <t>-1,87</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>-3,4</t>
+          <t>-3,46</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>-2,61</t>
+          <t>-2,68</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-2,5; -1,13</t>
+          <t>-2,56; -1,19</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-4,23; -2,6</t>
+          <t>-4,29; -2,65</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-3,15; -2,07</t>
+          <t>-3,2; -2,13</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>-61,41%</t>
+          <t>-63,46%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>-72,45%</t>
+          <t>-73,84%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>-68,18%</t>
+          <t>-69,87%</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-74,25; -42,88</t>
+          <t>-75,99; -43,83</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-80,31; -63,01</t>
+          <t>-81,74; -64,83</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-75,28; -60,35</t>
+          <t>-77,03; -61,55</t>
         </is>
       </c>
     </row>
